--- a/Delivers/Plan.xlsx
+++ b/Delivers/Plan.xlsx
@@ -1036,11 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G15" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1050,14 +1049,17 @@
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
     <col min="23" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1268,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1">
+    <row r="8" spans="1:24">
       <c r="A8" s="3">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1345,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="3">
         <f t="shared" ref="A9:A89" si="0">ROW()-7</f>
         <v>2</v>
@@ -1415,11 +1417,11 @@
         <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X9" s="4">
         <f>IF(F9="x", W9*References!$C$3, 0) + IF(G9="x", W9*References!$C$4, 0) + IF(H9="x", W9*References!$C$4, 0)</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1499,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1576,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1730,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1800,14 +1802,14 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X14" s="4">
         <f>IF(F14="x", W14*References!$C$3, 0) + IF(G14="x", W14*References!$C$4, 0) + IF(H14="x", W14*References!$C$4, 0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" hidden="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1884,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1958,14 +1960,14 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X16" s="4">
         <f>IF(F16="x", W16*References!$C$3, 0) + IF(G16="x", W16*References!$C$4, 0) + IF(H16="x", W16*References!$C$4, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2039,14 +2041,14 @@
         <v>0</v>
       </c>
       <c r="W17" s="4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X17" s="4">
         <f>IF(F17="x", W17*References!$C$3, 0) + IF(G17="x", W17*References!$C$4, 0) + IF(H17="x", W17*References!$C$4, 0)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2120,14 +2122,14 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="X18" s="4">
         <f>IF(F18="x", W18*References!$C$3, 0) + IF(G18="x", W18*References!$C$4, 0) + IF(H18="x", W18*References!$C$4, 0)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2201,14 +2203,14 @@
         <v>1</v>
       </c>
       <c r="W19" s="4">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="X19" s="4">
         <f>IF(F19="x", W19*References!$C$3, 0) + IF(G19="x", W19*References!$C$4, 0) + IF(H19="x", W19*References!$C$4, 0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" hidden="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2282,14 +2284,14 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X20" s="4">
         <f>IF(F20="x", W20*References!$C$3, 0) + IF(G20="x", W20*References!$C$4, 0) + IF(H20="x", W20*References!$C$4, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2363,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="X21" s="4">
         <f>IF(F21="x", W21*References!$C$3, 0) + IF(G21="x", W21*References!$C$4, 0) + IF(H21="x", W21*References!$C$4, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" hidden="1">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2444,14 +2446,14 @@
         <v>1</v>
       </c>
       <c r="W22" s="4">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="X22" s="4">
         <f>IF(F22="x", W22*References!$C$3, 0) + IF(G22="x", W22*References!$C$4, 0) + IF(H22="x", W22*References!$C$4, 0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" hidden="1">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2525,14 +2527,14 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X23" s="4">
         <f>IF(F23="x", W23*References!$C$3, 0) + IF(G23="x", W23*References!$C$4, 0) + IF(H23="x", W23*References!$C$4, 0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2609,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2679,14 +2681,14 @@
         <v>2</v>
       </c>
       <c r="W25" s="4">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X25" s="4">
         <f>IF(F25="x", W25*References!$C$3, 0) + IF(G25="x", W25*References!$C$4, 0) + IF(H25="x", W25*References!$C$4, 0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" hidden="1">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2756,14 +2758,14 @@
         <v>1</v>
       </c>
       <c r="W26" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X26" s="4">
         <f>IF(F26="x", W26*References!$C$3, 0) + IF(G26="x", W26*References!$C$4, 0) + IF(H26="x", W26*References!$C$4, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" hidden="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2837,14 +2839,14 @@
         <v>4</v>
       </c>
       <c r="W27" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="X27" s="4">
         <f>IF(F27="x", W27*References!$C$3, 0) + IF(G27="x", W27*References!$C$4, 0) + IF(H27="x", W27*References!$C$4, 0)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" hidden="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2918,14 +2920,14 @@
         <v>2</v>
       </c>
       <c r="W28" s="4">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="X28" s="4">
         <f>IF(F28="x", W28*References!$C$3, 0) + IF(G28="x", W28*References!$C$4, 0) + IF(H28="x", W28*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" hidden="1">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2997,14 +2999,14 @@
         <v>2</v>
       </c>
       <c r="W29" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="X29" s="4">
         <f>IF(F29="x", W29*References!$C$3, 0) + IF(G29="x", W29*References!$C$4, 0) + IF(H29="x", W29*References!$C$4, 0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3074,14 +3076,14 @@
         <v>0</v>
       </c>
       <c r="W30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X30" s="4">
         <f>IF(F30="x", W30*References!$C$3, 0) + IF(G30="x", W30*References!$C$4, 0) + IF(H30="x", W30*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3151,14 +3153,14 @@
         <v>0</v>
       </c>
       <c r="W31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X31" s="4">
         <f>IF(F31="x", W31*References!$C$3, 0) + IF(G31="x", W31*References!$C$4, 0) + IF(H31="x", W31*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" hidden="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3228,14 +3230,14 @@
         <v>1</v>
       </c>
       <c r="W32" s="4">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="X32" s="4">
         <f>IF(F32="x", W32*References!$C$3, 0) + IF(G32="x", W32*References!$C$4, 0) + IF(H32="x", W32*References!$C$4, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" hidden="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3305,14 +3307,14 @@
         <v>6</v>
       </c>
       <c r="W33" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="X33" s="4">
         <f>IF(F33="x", W33*References!$C$3, 0) + IF(G33="x", W33*References!$C$4, 0) + IF(H33="x", W33*References!$C$4, 0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" hidden="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3382,11 +3384,11 @@
         <v>4</v>
       </c>
       <c r="W34" s="4">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="X34" s="4">
         <f>IF(F34="x", W34*References!$C$3, 0) + IF(G34="x", W34*References!$C$4, 0) + IF(H34="x", W34*References!$C$4, 0)</f>
-        <v>24</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3542,7 +3544,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1">
+    <row r="37" spans="1:24">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3619,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1">
+    <row r="38" spans="1:24">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3696,7 +3698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1">
+    <row r="39" spans="1:24">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3850,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1">
+    <row r="41" spans="1:24">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3927,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1">
+    <row r="42" spans="1:24">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3992,7 +3994,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" hidden="1">
+    <row r="43" spans="1:24">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4122,7 +4124,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:24" hidden="1">
+    <row r="45" spans="1:24">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4175,7 +4177,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" hidden="1">
+    <row r="46" spans="1:24">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4228,7 +4230,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:24" hidden="1">
+    <row r="47" spans="1:24">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4334,7 +4336,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24" hidden="1">
+    <row r="49" spans="1:24">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4387,7 +4389,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24" hidden="1">
+    <row r="50" spans="1:24">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4440,7 +4442,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:24" hidden="1">
+    <row r="51" spans="1:24">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4546,7 +4548,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" hidden="1">
+    <row r="53" spans="1:24">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4599,7 +4601,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" hidden="1">
+    <row r="54" spans="1:24">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4652,7 +4654,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24" hidden="1">
+    <row r="55" spans="1:24">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4758,7 +4760,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" hidden="1">
+    <row r="57" spans="1:24">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4811,7 +4813,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" hidden="1">
+    <row r="58" spans="1:24">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4864,7 +4866,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="1:24" hidden="1">
+    <row r="59" spans="1:24">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4970,7 +4972,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24" hidden="1">
+    <row r="61" spans="1:24">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5023,7 +5025,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24" hidden="1">
+    <row r="62" spans="1:24">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5076,7 +5078,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24" hidden="1">
+    <row r="63" spans="1:24">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5182,7 +5184,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" hidden="1">
+    <row r="65" spans="1:24">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5235,7 +5237,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:24" hidden="1">
+    <row r="66" spans="1:24">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5288,7 +5290,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:24" hidden="1">
+    <row r="67" spans="1:24">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5394,7 +5396,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" hidden="1">
+    <row r="69" spans="1:24">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5447,7 +5449,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24" hidden="1">
+    <row r="70" spans="1:24">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5500,7 +5502,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24" hidden="1">
+    <row r="71" spans="1:24">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5606,7 +5608,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" hidden="1">
+    <row r="73" spans="1:24">
       <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5659,7 +5661,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" hidden="1">
+    <row r="74" spans="1:24">
       <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -5712,7 +5714,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="1:24" hidden="1">
+    <row r="75" spans="1:24">
       <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -5818,7 +5820,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="1:24" hidden="1">
+    <row r="77" spans="1:24">
       <c r="A77" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -5849,7 +5851,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24" hidden="1">
+    <row r="78" spans="1:24">
       <c r="A78" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -5878,7 +5880,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24" hidden="1">
+    <row r="79" spans="1:24">
       <c r="A79" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -5907,7 +5909,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24" hidden="1">
+    <row r="80" spans="1:24">
       <c r="A80" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -5936,7 +5938,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24" hidden="1">
+    <row r="81" spans="1:24">
       <c r="A81" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -5965,7 +5967,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24" hidden="1">
+    <row r="82" spans="1:24">
       <c r="A82" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5994,7 +5996,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24" hidden="1">
+    <row r="83" spans="1:24">
       <c r="A83" s="3">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -6023,7 +6025,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24" hidden="1">
+    <row r="84" spans="1:24">
       <c r="A84" s="3">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -6052,7 +6054,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" hidden="1">
+    <row r="85" spans="1:24">
       <c r="A85" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6081,7 +6083,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" hidden="1">
+    <row r="86" spans="1:24">
       <c r="A86" s="3">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -6110,7 +6112,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" hidden="1">
+    <row r="87" spans="1:24">
       <c r="A87" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -6139,7 +6141,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24" hidden="1">
+    <row r="88" spans="1:24">
       <c r="A88" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -6168,7 +6170,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" hidden="1">
+    <row r="89" spans="1:24">
       <c r="A89" s="3">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -6302,19 +6304,6 @@
       <c r="X93" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="F7:H89">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="24">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A6:A7"/>

--- a/Delivers/Plan.xlsx
+++ b/Delivers/Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="136">
   <si>
     <t>Project</t>
   </si>
@@ -399,6 +399,39 @@
   </si>
   <si>
     <t>Updating</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Build Application</t>
+  </si>
+  <si>
+    <t>Build enviroment</t>
+  </si>
+  <si>
+    <t>Create test scenario</t>
+  </si>
+  <si>
+    <t>Create test case</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Capture evidence</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Create Report</t>
+  </si>
+  <si>
+    <t>DE.DE</t>
+  </si>
+  <si>
+    <t>Deliver</t>
   </si>
 </sst>
 </file>
@@ -680,6 +713,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,9 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,33 +775,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G15" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,101 +1102,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="24"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="21" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="22" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="22" t="s">
+      <c r="N4" s="31"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="28"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:24">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1178,19 +1211,19 @@
       <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1204,14 +1237,14 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2279,7 @@
         <v>41164</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20:L76" si="4">K20-J20</f>
+        <f t="shared" ref="L20:L82" si="4">K20-J20</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
@@ -5828,18 +5861,44 @@
       <c r="B77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J77" s="9">
+        <v>41235</v>
+      </c>
+      <c r="K77" s="9">
+        <v>41235</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>12</v>
+      </c>
+      <c r="N77" s="4">
+        <f>IF(F77="x", M77*References!$C$3, 0) + IF(G77="x", M77*References!$C$4, 0) + IF(H77="x", M77*References!$C$4, 0)</f>
+        <v>60</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -5856,19 +5915,47 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J78" s="9">
+        <v>41239</v>
+      </c>
+      <c r="K78" s="9">
+        <v>41241</v>
+      </c>
+      <c r="L78" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M78" s="4">
+        <v>16</v>
+      </c>
+      <c r="N78" s="4">
+        <f>IF(F78="x", M78*References!$C$3, 0) + IF(G78="x", M78*References!$C$4, 0) + IF(H78="x", M78*References!$C$4, 0)</f>
+        <v>80</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -5885,19 +5972,47 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J79" s="9">
+        <v>41242</v>
+      </c>
+      <c r="K79" s="9">
+        <v>41244</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M79" s="4">
+        <v>16</v>
+      </c>
+      <c r="N79" s="4">
+        <f>IF(F79="x", M79*References!$C$3, 0) + IF(G79="x", M79*References!$C$4, 0) + IF(H79="x", M79*References!$C$4, 0)</f>
+        <v>80</v>
+      </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
@@ -5914,19 +6029,47 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J80" s="9">
+        <v>41245</v>
+      </c>
+      <c r="K80" s="9">
+        <v>41249</v>
+      </c>
+      <c r="L80" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M80" s="4">
+        <v>16</v>
+      </c>
+      <c r="N80" s="4">
+        <f>IF(F80="x", M80*References!$C$3, 0) + IF(G80="x", M80*References!$C$4, 0) + IF(H80="x", M80*References!$C$4, 0)</f>
+        <v>80</v>
+      </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
@@ -5943,19 +6086,47 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J81" s="9">
+        <v>41250</v>
+      </c>
+      <c r="K81" s="9">
+        <v>41250</v>
+      </c>
+      <c r="L81" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>16</v>
+      </c>
+      <c r="N81" s="4">
+        <f>IF(F81="x", M81*References!$C$3, 0) + IF(G81="x", M81*References!$C$4, 0) + IF(H81="x", M81*References!$C$4, 0)</f>
+        <v>80</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -5972,19 +6143,47 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J82" s="9">
+        <v>41254</v>
+      </c>
+      <c r="K82" s="9">
+        <v>41254</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>4</v>
+      </c>
+      <c r="N82" s="4">
+        <f>IF(F82="x", M82*References!$C$3, 0) + IF(G82="x", M82*References!$C$4, 0) + IF(H82="x", M82*References!$C$4, 0)</f>
+        <v>20</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -6213,7 +6412,10 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="N90" s="4">
+        <f>SUM(N8:N82)</f>
+        <v>1872</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -6305,14 +6507,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M2:N2"/>
@@ -6329,6 +6523,14 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Delivers/Plan.xlsx
+++ b/Delivers/Plan.xlsx
@@ -16,15 +16,15 @@
     <sheet name="References" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phase!$F$7:$H$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Phase!$A$1:$X$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phase!$A$6:$X$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Phase!$A$1:$X$73</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="115">
   <si>
     <t>Project</t>
   </si>
@@ -326,70 +326,7 @@
     <t>About pages</t>
   </si>
   <si>
-    <t>UT feature Add contest</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>TE.CO</t>
-  </si>
-  <si>
-    <t>UT feature edit contest</t>
-  </si>
-  <si>
-    <t>UT feature remove contest</t>
-  </si>
-  <si>
-    <t>UT feature contest manager page</t>
-  </si>
-  <si>
-    <t>UT feature Add question</t>
-  </si>
-  <si>
-    <t>UT feature edit question</t>
-  </si>
-  <si>
-    <t>UT feature remove question</t>
-  </si>
-  <si>
-    <t>UT feature question manager page</t>
-  </si>
-  <si>
-    <t>UT feature Add user</t>
-  </si>
-  <si>
-    <t>UT feature edit user</t>
-  </si>
-  <si>
-    <t>UT feature remove user</t>
-  </si>
-  <si>
-    <t>UT feature user manager page</t>
-  </si>
-  <si>
-    <t>UT feature Login page</t>
-  </si>
-  <si>
-    <t>UT feature Logout page</t>
-  </si>
-  <si>
-    <t>UT feature Index page</t>
-  </si>
-  <si>
-    <t>UT feature Navigation Menu</t>
-  </si>
-  <si>
-    <t>UT feature Contest system</t>
-  </si>
-  <si>
-    <t>UT feature Submit file system</t>
-  </si>
-  <si>
-    <t>UT feature Score table</t>
-  </si>
-  <si>
-    <t>UT feature About pages</t>
   </si>
   <si>
     <t>Create overview</t>
@@ -713,36 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,6 +662,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,6 +685,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="A14:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,101 +1039,101 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="28" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="30" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="30" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="31" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="31" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:24">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1211,19 +1148,19 @@
       <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1237,14 +1174,14 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
-      <c r="X6" s="29"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1319,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="3">
-        <f t="shared" ref="A9:A89" si="0">ROW()-7</f>
+        <f t="shared" ref="A9:A62" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1446,7 +1383,7 @@
         <v>41156</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" ref="V9:V36" si="3">U9-T9</f>
+        <f t="shared" ref="V9:V62" si="3">U9-T9</f>
         <v>0</v>
       </c>
       <c r="W9" s="4">
@@ -2279,7 +2216,7 @@
         <v>41164</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" ref="L20:L82" si="4">K20-J20</f>
+        <f t="shared" ref="L20:L62" si="4">K20-J20</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
@@ -3439,7 +3376,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -3516,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -3524,7 +3461,7 @@
         <v>44</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J36" s="9">
         <v>41203</v>
@@ -3626,7 +3563,7 @@
         <v>41215</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" ref="Q37:Q42" si="5">P37-O37</f>
+        <f t="shared" ref="Q37:Q39" si="5">P37-O37</f>
         <v>0</v>
       </c>
       <c r="R37" s="4">
@@ -3643,7 +3580,7 @@
         <v>41215</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" ref="V37:V43" si="6">U37-T37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W37" s="4">
@@ -3669,21 +3606,21 @@
         <v>73</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J38" s="9">
-        <v>41218</v>
+        <v>41216</v>
       </c>
       <c r="K38" s="9">
-        <v>41218</v>
+        <v>41216</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="4"/>
@@ -3694,13 +3631,13 @@
       </c>
       <c r="N38" s="4">
         <f>IF(F38="x", M38*References!$C$3, 0) + IF(G38="x", M38*References!$C$4, 0) + IF(H38="x", M38*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O38" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="P38" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="5"/>
@@ -3711,7 +3648,7 @@
       </c>
       <c r="S38" s="4">
         <f>IF(F38="x", R38*References!$C$3, 0) + IF(G38="x", R38*References!$C$4, 0) + IF(H38="x", R38*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T38" s="9">
         <v>41216</v>
@@ -3720,15 +3657,15 @@
         <v>41216</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W38" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X38" s="4">
         <f>IF(F38="x", W38*References!$C$3, 0) + IF(G38="x", W38*References!$C$4, 0) + IF(H38="x", W38*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3746,7 +3683,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>44</v>
@@ -3757,10 +3694,10 @@
         <v>45</v>
       </c>
       <c r="J39" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="K39" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="4"/>
@@ -3791,21 +3728,21 @@
         <v>8</v>
       </c>
       <c r="T39" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="U39" s="9">
-        <v>41216</v>
+        <v>41217</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X39" s="4">
         <f>IF(F39="x", W39*References!$C$3, 0) + IF(G39="x", W39*References!$C$4, 0) + IF(H39="x", W39*References!$C$4, 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3823,15 +3760,15 @@
         <v>73</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G40" s="12"/>
-      <c r="H40" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H40" s="12"/>
       <c r="I40" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J40" s="9">
         <v>41218</v>
@@ -3848,16 +3785,16 @@
       </c>
       <c r="N40" s="4">
         <f>IF(F40="x", M40*References!$C$3, 0) + IF(G40="x", M40*References!$C$4, 0) + IF(H40="x", M40*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="P40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q40:Q62" si="6">P40-O40</f>
         <v>0</v>
       </c>
       <c r="R40" s="4">
@@ -3865,24 +3802,24 @@
       </c>
       <c r="S40" s="4">
         <f>IF(F40="x", R40*References!$C$3, 0) + IF(G40="x", R40*References!$C$4, 0) + IF(H40="x", R40*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="U40" s="9">
-        <v>41187</v>
+        <v>41218</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W40" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X40" s="4">
         <f>IF(F40="x", W40*References!$C$3, 0) + IF(G40="x", W40*References!$C$4, 0) + IF(H40="x", W40*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3897,10 +3834,10 @@
         <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>44</v>
@@ -3911,10 +3848,10 @@
         <v>45</v>
       </c>
       <c r="J41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="K41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="4"/>
@@ -3928,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="O41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="P41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="4">
@@ -3945,13 +3882,13 @@
         <v>8</v>
       </c>
       <c r="T41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="U41" s="9">
-        <v>41217</v>
+        <v>41219</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W41" s="4">
@@ -3974,24 +3911,24 @@
         <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J42" s="9">
-        <v>41219</v>
+        <v>41220</v>
       </c>
       <c r="K42" s="9">
-        <v>41219</v>
+        <v>41220</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="4"/>
@@ -4002,30 +3939,42 @@
       </c>
       <c r="N42" s="4">
         <f>IF(F42="x", M42*References!$C$3, 0) + IF(G42="x", M42*References!$C$4, 0) + IF(H42="x", M42*References!$C$4, 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O42" s="9">
-        <v>41219</v>
+        <v>41220</v>
       </c>
       <c r="P42" s="9">
-        <v>41219</v>
+        <v>41220</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="4">
         <v>4</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(K42="x", R42*References!$C$3, 0) + IF(L42="x", R42*References!$C$4, 0) + IF(M42="x", R42*References!$C$4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+        <f>IF(F42="x", R42*References!$C$3, 0) + IF(G42="x", R42*References!$C$4, 0) + IF(H42="x", R42*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T42" s="9">
+        <v>41220</v>
+      </c>
+      <c r="U42" s="9">
+        <v>41220</v>
+      </c>
+      <c r="V42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>2</v>
+      </c>
+      <c r="X42" s="4">
+        <f>IF(F42="x", W42*References!$C$3, 0) + IF(G42="x", W42*References!$C$4, 0) + IF(H42="x", W42*References!$C$4, 0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="3">
@@ -4039,10 +3988,10 @@
         <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>44</v>
@@ -4050,13 +3999,13 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="K43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="4"/>
@@ -4070,13 +4019,13 @@
         <v>8</v>
       </c>
       <c r="O43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="P43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" ref="Q43" si="7">P43-O43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R43" s="4">
@@ -4087,21 +4036,21 @@
         <v>8</v>
       </c>
       <c r="T43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="U43" s="9">
-        <v>41218</v>
+        <v>41221</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W43" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X43" s="4">
         <f>IF(F43="x", W43*References!$C$3, 0) + IF(G43="x", W43*References!$C$4, 0) + IF(H43="x", W43*References!$C$4, 0)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4116,24 +4065,24 @@
         <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G44" s="12"/>
-      <c r="H44" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H44" s="12"/>
       <c r="I44" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J44" s="9">
-        <v>41219</v>
+        <v>41222</v>
       </c>
       <c r="K44" s="9">
-        <v>41219</v>
+        <v>41222</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="4"/>
@@ -4144,18 +4093,42 @@
       </c>
       <c r="N44" s="4">
         <f>IF(F44="x", M44*References!$C$3, 0) + IF(G44="x", M44*References!$C$4, 0) + IF(H44="x", M44*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="O44" s="9">
+        <v>41222</v>
+      </c>
+      <c r="P44" s="9">
+        <v>41222</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>4</v>
+      </c>
+      <c r="S44" s="4">
+        <f>IF(F44="x", R44*References!$C$3, 0) + IF(G44="x", R44*References!$C$4, 0) + IF(H44="x", R44*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T44" s="9">
+        <v>41222</v>
+      </c>
+      <c r="U44" s="9">
+        <v>41222</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>2</v>
+      </c>
+      <c r="X44" s="4">
+        <f>IF(F44="x", W44*References!$C$3, 0) + IF(G44="x", W44*References!$C$4, 0) + IF(H44="x", W44*References!$C$4, 0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="3">
@@ -4169,10 +4142,10 @@
         <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>44</v>
@@ -4180,13 +4153,13 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J45" s="9">
-        <v>41219</v>
+        <v>41223</v>
       </c>
       <c r="K45" s="9">
-        <v>41219</v>
+        <v>41223</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="4"/>
@@ -4199,16 +4172,40 @@
         <f>IF(F45="x", M45*References!$C$3, 0) + IF(G45="x", M45*References!$C$4, 0) + IF(H45="x", M45*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="O45" s="9">
+        <v>41223</v>
+      </c>
+      <c r="P45" s="9">
+        <v>41223</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>4</v>
+      </c>
+      <c r="S45" s="4">
+        <f>IF(F45="x", R45*References!$C$3, 0) + IF(G45="x", R45*References!$C$4, 0) + IF(H45="x", R45*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T45" s="9">
+        <v>41223</v>
+      </c>
+      <c r="U45" s="9">
+        <v>41223</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>3</v>
+      </c>
+      <c r="X45" s="4">
+        <f>IF(F45="x", W45*References!$C$3, 0) + IF(G45="x", W45*References!$C$4, 0) + IF(H45="x", W45*References!$C$4, 0)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="3">
@@ -4222,24 +4219,24 @@
         <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J46" s="9">
-        <v>41220</v>
+        <v>77748</v>
       </c>
       <c r="K46" s="9">
-        <v>41220</v>
+        <v>77748</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="4"/>
@@ -4250,18 +4247,42 @@
       </c>
       <c r="N46" s="4">
         <f>IF(F46="x", M46*References!$C$3, 0) + IF(G46="x", M46*References!$C$4, 0) + IF(H46="x", M46*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="O46" s="9">
+        <v>77748</v>
+      </c>
+      <c r="P46" s="9">
+        <v>77748</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <v>4</v>
+      </c>
+      <c r="S46" s="4">
+        <f>IF(F46="x", R46*References!$C$3, 0) + IF(G46="x", R46*References!$C$4, 0) + IF(H46="x", R46*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T46" s="9">
+        <v>77748</v>
+      </c>
+      <c r="U46" s="9">
+        <v>77748</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="4">
+        <v>4</v>
+      </c>
+      <c r="X46" s="4">
+        <f>IF(F46="x", W46*References!$C$3, 0) + IF(G46="x", W46*References!$C$4, 0) + IF(H46="x", W46*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="3">
@@ -4275,10 +4296,10 @@
         <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>44</v>
@@ -4286,13 +4307,13 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J47" s="9">
-        <v>41220</v>
+        <v>41225</v>
       </c>
       <c r="K47" s="9">
-        <v>41220</v>
+        <v>41225</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="4"/>
@@ -4305,16 +4326,40 @@
         <f>IF(F47="x", M47*References!$C$3, 0) + IF(G47="x", M47*References!$C$4, 0) + IF(H47="x", M47*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="O47" s="9">
+        <v>41225</v>
+      </c>
+      <c r="P47" s="9">
+        <v>41225</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
+        <v>4</v>
+      </c>
+      <c r="S47" s="4">
+        <f>IF(F47="x", R47*References!$C$3, 0) + IF(G47="x", R47*References!$C$4, 0) + IF(H47="x", R47*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T47" s="9">
+        <v>41225</v>
+      </c>
+      <c r="U47" s="9">
+        <v>41225</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="4">
+        <v>5</v>
+      </c>
+      <c r="X47" s="4">
+        <f>IF(F47="x", W47*References!$C$3, 0) + IF(G47="x", W47*References!$C$4, 0) + IF(H47="x", W47*References!$C$4, 0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="3">
@@ -4328,24 +4373,24 @@
         <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J48" s="9">
-        <v>41221</v>
+        <v>41226</v>
       </c>
       <c r="K48" s="9">
-        <v>41221</v>
+        <v>41226</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="4"/>
@@ -4356,18 +4401,42 @@
       </c>
       <c r="N48" s="4">
         <f>IF(F48="x", M48*References!$C$3, 0) + IF(G48="x", M48*References!$C$4, 0) + IF(H48="x", M48*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="O48" s="9">
+        <v>41226</v>
+      </c>
+      <c r="P48" s="9">
+        <v>41226</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <v>4</v>
+      </c>
+      <c r="S48" s="4">
+        <f>IF(F48="x", R48*References!$C$3, 0) + IF(G48="x", R48*References!$C$4, 0) + IF(H48="x", R48*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T48" s="9">
+        <v>41226</v>
+      </c>
+      <c r="U48" s="9">
+        <v>41226</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="4">
+        <v>4</v>
+      </c>
+      <c r="X48" s="4">
+        <f>IF(F48="x", W48*References!$C$3, 0) + IF(G48="x", W48*References!$C$4, 0) + IF(H48="x", W48*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="3">
@@ -4381,10 +4450,10 @@
         <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>44</v>
@@ -4392,13 +4461,13 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J49" s="9">
-        <v>41221</v>
+        <v>41227</v>
       </c>
       <c r="K49" s="9">
-        <v>41221</v>
+        <v>41227</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="4"/>
@@ -4411,16 +4480,40 @@
         <f>IF(F49="x", M49*References!$C$3, 0) + IF(G49="x", M49*References!$C$4, 0) + IF(H49="x", M49*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
+      <c r="O49" s="9">
+        <v>41227</v>
+      </c>
+      <c r="P49" s="9">
+        <v>41227</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
+        <v>4</v>
+      </c>
+      <c r="S49" s="4">
+        <f>IF(F49="x", R49*References!$C$3, 0) + IF(G49="x", R49*References!$C$4, 0) + IF(H49="x", R49*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T49" s="9">
+        <v>41227</v>
+      </c>
+      <c r="U49" s="9">
+        <v>41227</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="4">
+        <v>4</v>
+      </c>
+      <c r="X49" s="4">
+        <f>IF(F49="x", W49*References!$C$3, 0) + IF(G49="x", W49*References!$C$4, 0) + IF(H49="x", W49*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="3">
@@ -4434,24 +4527,24 @@
         <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J50" s="9">
-        <v>41222</v>
+        <v>41227</v>
       </c>
       <c r="K50" s="9">
-        <v>41222</v>
+        <v>41227</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="4"/>
@@ -4462,18 +4555,42 @@
       </c>
       <c r="N50" s="4">
         <f>IF(F50="x", M50*References!$C$3, 0) + IF(G50="x", M50*References!$C$4, 0) + IF(H50="x", M50*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="O50" s="9">
+        <v>41227</v>
+      </c>
+      <c r="P50" s="9">
+        <v>41227</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
+        <v>4</v>
+      </c>
+      <c r="S50" s="4">
+        <f>IF(F50="x", R50*References!$C$3, 0) + IF(G50="x", R50*References!$C$4, 0) + IF(H50="x", R50*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T50" s="9">
+        <v>41227</v>
+      </c>
+      <c r="U50" s="9">
+        <v>41227</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="4">
+        <v>3</v>
+      </c>
+      <c r="X50" s="4">
+        <f>IF(F50="x", W50*References!$C$3, 0) + IF(G50="x", W50*References!$C$4, 0) + IF(H50="x", W50*References!$C$4, 0)</f>
         <v>6</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="3">
@@ -4487,10 +4604,10 @@
         <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>44</v>
@@ -4498,13 +4615,13 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J51" s="9">
-        <v>41222</v>
+        <v>41228</v>
       </c>
       <c r="K51" s="9">
-        <v>41222</v>
+        <v>41228</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="4"/>
@@ -4517,16 +4634,40 @@
         <f>IF(F51="x", M51*References!$C$3, 0) + IF(G51="x", M51*References!$C$4, 0) + IF(H51="x", M51*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
+      <c r="O51" s="9">
+        <v>41228</v>
+      </c>
+      <c r="P51" s="9">
+        <v>41228</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="4">
+        <v>4</v>
+      </c>
+      <c r="S51" s="4">
+        <f>IF(F51="x", R51*References!$C$3, 0) + IF(G51="x", R51*References!$C$4, 0) + IF(H51="x", R51*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T51" s="9">
+        <v>41228</v>
+      </c>
+      <c r="U51" s="9">
+        <v>41228</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="4">
+        <v>4</v>
+      </c>
+      <c r="X51" s="4">
+        <f>IF(F51="x", W51*References!$C$3, 0) + IF(G51="x", W51*References!$C$4, 0) + IF(H51="x", W51*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="3">
@@ -4540,24 +4681,24 @@
         <v>72</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H52" s="12"/>
       <c r="I52" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J52" s="9">
-        <v>41223</v>
+        <v>41228</v>
       </c>
       <c r="K52" s="9">
-        <v>41223</v>
+        <v>41228</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="4"/>
@@ -4568,18 +4709,42 @@
       </c>
       <c r="N52" s="4">
         <f>IF(F52="x", M52*References!$C$3, 0) + IF(G52="x", M52*References!$C$4, 0) + IF(H52="x", M52*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="O52" s="9">
+        <v>41228</v>
+      </c>
+      <c r="P52" s="9">
+        <v>41228</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="4">
+        <v>4</v>
+      </c>
+      <c r="S52" s="4">
+        <f>IF(F52="x", R52*References!$C$3, 0) + IF(G52="x", R52*References!$C$4, 0) + IF(H52="x", R52*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T52" s="9">
+        <v>41228</v>
+      </c>
+      <c r="U52" s="9">
+        <v>41228</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
+        <v>5</v>
+      </c>
+      <c r="X52" s="4">
+        <f>IF(F52="x", W52*References!$C$3, 0) + IF(G52="x", W52*References!$C$4, 0) + IF(H52="x", W52*References!$C$4, 0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="3">
@@ -4593,10 +4758,10 @@
         <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>44</v>
@@ -4604,13 +4769,13 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J53" s="9">
-        <v>41223</v>
+        <v>41229</v>
       </c>
       <c r="K53" s="9">
-        <v>41223</v>
+        <v>41229</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="4"/>
@@ -4623,16 +4788,40 @@
         <f>IF(F53="x", M53*References!$C$3, 0) + IF(G53="x", M53*References!$C$4, 0) + IF(H53="x", M53*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
+      <c r="O53" s="9">
+        <v>41229</v>
+      </c>
+      <c r="P53" s="9">
+        <v>41229</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
+        <v>4</v>
+      </c>
+      <c r="S53" s="4">
+        <f>IF(F53="x", R53*References!$C$3, 0) + IF(G53="x", R53*References!$C$4, 0) + IF(H53="x", R53*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T53" s="9">
+        <v>41229</v>
+      </c>
+      <c r="U53" s="9">
+        <v>41229</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>3</v>
+      </c>
+      <c r="X53" s="4">
+        <f>IF(F53="x", W53*References!$C$3, 0) + IF(G53="x", W53*References!$C$4, 0) + IF(H53="x", W53*References!$C$4, 0)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="3">
@@ -4646,24 +4835,24 @@
         <v>72</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J54" s="9">
-        <v>41224</v>
+        <v>41229</v>
       </c>
       <c r="K54" s="9">
-        <v>41224</v>
+        <v>41229</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="4"/>
@@ -4674,18 +4863,42 @@
       </c>
       <c r="N54" s="4">
         <f>IF(F54="x", M54*References!$C$3, 0) + IF(G54="x", M54*References!$C$4, 0) + IF(H54="x", M54*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="O54" s="9">
+        <v>41229</v>
+      </c>
+      <c r="P54" s="9">
+        <v>41229</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <v>4</v>
+      </c>
+      <c r="S54" s="4">
+        <f>IF(F54="x", R54*References!$C$3, 0) + IF(G54="x", R54*References!$C$4, 0) + IF(H54="x", R54*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T54" s="9">
+        <v>41229</v>
+      </c>
+      <c r="U54" s="9">
+        <v>41229</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="4">
+        <v>4</v>
+      </c>
+      <c r="X54" s="4">
+        <f>IF(F54="x", W54*References!$C$3, 0) + IF(G54="x", W54*References!$C$4, 0) + IF(H54="x", W54*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="3">
@@ -4699,10 +4912,10 @@
         <v>72</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>44</v>
@@ -4710,13 +4923,13 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J55" s="9">
-        <v>77748</v>
+        <v>41230</v>
       </c>
       <c r="K55" s="9">
-        <v>77748</v>
+        <v>41230</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="4"/>
@@ -4729,16 +4942,40 @@
         <f>IF(F55="x", M55*References!$C$3, 0) + IF(G55="x", M55*References!$C$4, 0) + IF(H55="x", M55*References!$C$4, 0)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
+      <c r="O55" s="9">
+        <v>41230</v>
+      </c>
+      <c r="P55" s="9">
+        <v>41230</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <v>4</v>
+      </c>
+      <c r="S55" s="4">
+        <f>IF(F55="x", R55*References!$C$3, 0) + IF(G55="x", R55*References!$C$4, 0) + IF(H55="x", R55*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T55" s="9">
+        <v>41230</v>
+      </c>
+      <c r="U55" s="9">
+        <v>41230</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <v>5</v>
+      </c>
+      <c r="X55" s="4">
+        <f>IF(F55="x", W55*References!$C$3, 0) + IF(G55="x", W55*References!$C$4, 0) + IF(H55="x", W55*References!$C$4, 0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="3">
@@ -4752,24 +4989,24 @@
         <v>72</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G56" s="12"/>
-      <c r="H56" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H56" s="12"/>
       <c r="I56" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J56" s="9">
-        <v>41225</v>
+        <v>41231</v>
       </c>
       <c r="K56" s="9">
-        <v>41225</v>
+        <v>41231</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="4"/>
@@ -4780,18 +5017,42 @@
       </c>
       <c r="N56" s="4">
         <f>IF(F56="x", M56*References!$C$3, 0) + IF(G56="x", M56*References!$C$4, 0) + IF(H56="x", M56*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="O56" s="9">
+        <v>41231</v>
+      </c>
+      <c r="P56" s="9">
+        <v>41231</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <v>4</v>
+      </c>
+      <c r="S56" s="4">
+        <f>IF(F56="x", R56*References!$C$3, 0) + IF(G56="x", R56*References!$C$4, 0) + IF(H56="x", R56*References!$C$4, 0)</f>
+        <v>8</v>
+      </c>
+      <c r="T56" s="9">
+        <v>41231</v>
+      </c>
+      <c r="U56" s="9">
+        <v>41231</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="4">
+        <v>3</v>
+      </c>
+      <c r="X56" s="4">
+        <f>IF(F56="x", W56*References!$C$3, 0) + IF(G56="x", W56*References!$C$4, 0) + IF(H56="x", W56*References!$C$4, 0)</f>
         <v>6</v>
       </c>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="3">
@@ -4799,52 +5060,80 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I57" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J57" s="9">
-        <v>41225</v>
+        <v>41235</v>
       </c>
       <c r="K57" s="9">
-        <v>41225</v>
+        <v>41235</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M57" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N57" s="4">
         <f>IF(F57="x", M57*References!$C$3, 0) + IF(G57="x", M57*References!$C$4, 0) + IF(H57="x", M57*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="O57" s="9">
+        <v>41235</v>
+      </c>
+      <c r="P57" s="9">
+        <v>41235</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <v>12</v>
+      </c>
+      <c r="S57" s="4">
+        <f>IF(F57="x", R57*References!$C$3, 0) + IF(G57="x", R57*References!$C$4, 0) + IF(H57="x", R57*References!$C$4, 0)</f>
+        <v>60</v>
+      </c>
+      <c r="T57" s="9">
+        <v>41235</v>
+      </c>
+      <c r="U57" s="9">
+        <v>41235</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <v>12</v>
+      </c>
+      <c r="X57" s="4">
+        <f>IF(F57="x", W57*References!$C$3, 0) + IF(G57="x", W57*References!$C$4, 0) + IF(H57="x", W57*References!$C$4, 0)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="3">
@@ -4852,52 +5141,78 @@
         <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I58" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J58" s="9">
-        <v>41226</v>
+        <v>41239</v>
       </c>
       <c r="K58" s="9">
-        <v>41226</v>
+        <v>41241</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N58" s="4">
         <f>IF(F58="x", M58*References!$C$3, 0) + IF(G58="x", M58*References!$C$4, 0) + IF(H58="x", M58*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="O58" s="9">
+        <v>41239</v>
+      </c>
+      <c r="P58" s="9">
+        <v>41241</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R58" s="4">
+        <v>16</v>
+      </c>
+      <c r="S58" s="4">
+        <f>IF(F58="x", R58*References!$C$3, 0) + IF(G58="x", R58*References!$C$4, 0) + IF(H58="x", R58*References!$C$4, 0)</f>
+        <v>48</v>
+      </c>
+      <c r="T58" s="9">
+        <v>41239</v>
+      </c>
+      <c r="U58" s="9">
+        <v>41241</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W58" s="4">
+        <v>14</v>
+      </c>
+      <c r="X58" s="4">
+        <f>IF(F58="x", W58*References!$C$3, 0) + IF(G58="x", W58*References!$C$4, 0) + IF(H58="x", W58*References!$C$4, 0)</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="3">
@@ -4905,52 +5220,78 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I59" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J59" s="9">
-        <v>41226</v>
+        <v>41242</v>
       </c>
       <c r="K59" s="9">
-        <v>41226</v>
+        <v>41244</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N59" s="4">
         <f>IF(F59="x", M59*References!$C$3, 0) + IF(G59="x", M59*References!$C$4, 0) + IF(H59="x", M59*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="O59" s="9">
+        <v>41242</v>
+      </c>
+      <c r="P59" s="9">
+        <v>41244</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="R59" s="4">
+        <v>16</v>
+      </c>
+      <c r="S59" s="4">
+        <f>IF(F59="x", R59*References!$C$3, 0) + IF(G59="x", R59*References!$C$4, 0) + IF(H59="x", R59*References!$C$4, 0)</f>
+        <v>48</v>
+      </c>
+      <c r="T59" s="9">
+        <v>41242</v>
+      </c>
+      <c r="U59" s="9">
+        <v>41244</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W59" s="4">
+        <v>22</v>
+      </c>
+      <c r="X59" s="4">
+        <f>IF(F59="x", W59*References!$C$3, 0) + IF(G59="x", W59*References!$C$4, 0) + IF(H59="x", W59*References!$C$4, 0)</f>
+        <v>66</v>
+      </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="3">
@@ -4958,52 +5299,78 @@
         <v>53</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H60" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J60" s="9">
-        <v>41227</v>
+        <v>41245</v>
       </c>
       <c r="K60" s="9">
-        <v>41227</v>
+        <v>41249</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N60" s="4">
         <f>IF(F60="x", M60*References!$C$3, 0) + IF(G60="x", M60*References!$C$4, 0) + IF(H60="x", M60*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="O60" s="9">
+        <v>41245</v>
+      </c>
+      <c r="P60" s="9">
+        <v>41249</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="R60" s="4">
+        <v>16</v>
+      </c>
+      <c r="S60" s="4">
+        <f>IF(F60="x", R60*References!$C$3, 0) + IF(G60="x", R60*References!$C$4, 0) + IF(H60="x", R60*References!$C$4, 0)</f>
+        <v>48</v>
+      </c>
+      <c r="T60" s="9">
+        <v>41245</v>
+      </c>
+      <c r="U60" s="9">
+        <v>41249</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W60" s="4">
+        <v>12</v>
+      </c>
+      <c r="X60" s="4">
+        <f>IF(F60="x", W60*References!$C$3, 0) + IF(G60="x", W60*References!$C$4, 0) + IF(H60="x", W60*References!$C$4, 0)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="3">
@@ -5011,52 +5378,78 @@
         <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I61" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J61" s="9">
-        <v>41227</v>
+        <v>41250</v>
       </c>
       <c r="K61" s="9">
-        <v>41227</v>
+        <v>41250</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M61" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N61" s="4">
         <f>IF(F61="x", M61*References!$C$3, 0) + IF(G61="x", M61*References!$C$4, 0) + IF(H61="x", M61*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="O61" s="9">
+        <v>41250</v>
+      </c>
+      <c r="P61" s="9">
+        <v>41250</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>16</v>
+      </c>
+      <c r="S61" s="4">
+        <f>IF(F61="x", R61*References!$C$3, 0) + IF(G61="x", R61*References!$C$4, 0) + IF(H61="x", R61*References!$C$4, 0)</f>
+        <v>48</v>
+      </c>
+      <c r="T61" s="9">
+        <v>41252</v>
+      </c>
+      <c r="U61" s="9">
+        <v>41259</v>
+      </c>
+      <c r="V61" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="W61" s="4">
+        <v>26</v>
+      </c>
+      <c r="X61" s="4">
+        <f>IF(F61="x", W61*References!$C$3, 0) + IF(G61="x", W61*References!$C$4, 0) + IF(H61="x", W61*References!$C$4, 0)</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="3">
@@ -5064,30 +5457,34 @@
         <v>55</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="G62" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I62" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="J62" s="9">
-        <v>41227</v>
+        <v>41254</v>
       </c>
       <c r="K62" s="9">
-        <v>41227</v>
+        <v>41254</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="4"/>
@@ -5098,1415 +5495,339 @@
       </c>
       <c r="N62" s="4">
         <f>IF(F62="x", M62*References!$C$3, 0) + IF(G62="x", M62*References!$C$4, 0) + IF(H62="x", M62*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="O62" s="9">
+        <v>41254</v>
+      </c>
+      <c r="P62" s="9">
+        <v>41254</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>4</v>
+      </c>
+      <c r="S62" s="4">
+        <f>IF(F62="x", R62*References!$C$3, 0) + IF(G62="x", R62*References!$C$4, 0) + IF(H62="x", R62*References!$C$4, 0)</f>
+        <v>20</v>
+      </c>
+      <c r="T62" s="9">
+        <v>41260</v>
+      </c>
+      <c r="U62" s="9">
+        <v>41260</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="4">
+        <v>4</v>
+      </c>
+      <c r="X62" s="4">
+        <f>IF(F62="x", W62*References!$C$3, 0) + IF(G62="x", W62*References!$C$4, 0) + IF(H62="x", W62*References!$C$4, 0)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" s="9">
-        <v>41227</v>
-      </c>
-      <c r="K63" s="9">
-        <v>41227</v>
-      </c>
-      <c r="L63" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>4</v>
-      </c>
-      <c r="N63" s="4">
-        <f>IF(F63="x", M63*References!$C$3, 0) + IF(G63="x", M63*References!$C$4, 0) + IF(H63="x", M63*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
+      <c r="X63" s="5"/>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J64" s="9">
-        <v>41228</v>
-      </c>
-      <c r="K64" s="9">
-        <v>41228</v>
-      </c>
-      <c r="L64" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
-        <v>4</v>
-      </c>
-      <c r="N64" s="4">
-        <f>IF(F64="x", M64*References!$C$3, 0) + IF(G64="x", M64*References!$C$4, 0) + IF(H64="x", M64*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
+      <c r="X64" s="5"/>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J65" s="9">
-        <v>41228</v>
-      </c>
-      <c r="K65" s="9">
-        <v>41228</v>
-      </c>
-      <c r="L65" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>4</v>
-      </c>
-      <c r="N65" s="4">
-        <f>IF(F65="x", M65*References!$C$3, 0) + IF(G65="x", M65*References!$C$4, 0) + IF(H65="x", M65*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
+      <c r="X65" s="5"/>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J66" s="9">
-        <v>41228</v>
-      </c>
-      <c r="K66" s="9">
-        <v>41228</v>
-      </c>
-      <c r="L66" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>4</v>
-      </c>
-      <c r="N66" s="4">
-        <f>IF(F66="x", M66*References!$C$3, 0) + IF(G66="x", M66*References!$C$4, 0) + IF(H66="x", M66*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="X66" s="5"/>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J67" s="9">
-        <v>41228</v>
-      </c>
-      <c r="K67" s="9">
-        <v>41228</v>
-      </c>
-      <c r="L67" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>4</v>
-      </c>
-      <c r="N67" s="4">
-        <f>IF(F67="x", M67*References!$C$3, 0) + IF(G67="x", M67*References!$C$4, 0) + IF(H67="x", M67*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
+      <c r="X67" s="5"/>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="3">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J68" s="9">
-        <v>41229</v>
-      </c>
-      <c r="K68" s="9">
-        <v>41229</v>
-      </c>
-      <c r="L68" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <v>4</v>
-      </c>
-      <c r="N68" s="4">
-        <f>IF(F68="x", M68*References!$C$3, 0) + IF(G68="x", M68*References!$C$4, 0) + IF(H68="x", M68*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
+      <c r="X68" s="5"/>
     </row>
     <row r="69" spans="1:24">
-      <c r="A69" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="9">
-        <v>41229</v>
-      </c>
-      <c r="K69" s="9">
-        <v>41229</v>
-      </c>
-      <c r="L69" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
-        <v>4</v>
-      </c>
-      <c r="N69" s="4">
-        <f>IF(F69="x", M69*References!$C$3, 0) + IF(G69="x", M69*References!$C$4, 0) + IF(H69="x", M69*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="X69" s="5"/>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J70" s="9">
-        <v>41229</v>
-      </c>
-      <c r="K70" s="9">
-        <v>41229</v>
-      </c>
-      <c r="L70" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="4">
-        <v>4</v>
-      </c>
-      <c r="N70" s="4">
-        <f>IF(F70="x", M70*References!$C$3, 0) + IF(G70="x", M70*References!$C$4, 0) + IF(H70="x", M70*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="X70" s="5"/>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J71" s="9">
-        <v>41229</v>
-      </c>
-      <c r="K71" s="9">
-        <v>41229</v>
-      </c>
-      <c r="L71" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="4">
-        <v>4</v>
-      </c>
-      <c r="N71" s="4">
-        <f>IF(F71="x", M71*References!$C$3, 0) + IF(G71="x", M71*References!$C$4, 0) + IF(H71="x", M71*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
+      <c r="X71" s="5"/>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J72" s="9">
-        <v>41230</v>
-      </c>
-      <c r="K72" s="9">
-        <v>41230</v>
-      </c>
-      <c r="L72" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>4</v>
-      </c>
-      <c r="N72" s="4">
-        <f>IF(F72="x", M72*References!$C$3, 0) + IF(G72="x", M72*References!$C$4, 0) + IF(H72="x", M72*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-    </row>
-    <row r="73" spans="1:24">
-      <c r="A73" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J73" s="9">
-        <v>41230</v>
-      </c>
-      <c r="K73" s="9">
-        <v>41230</v>
-      </c>
-      <c r="L73" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>4</v>
-      </c>
-      <c r="N73" s="4">
-        <f>IF(F73="x", M73*References!$C$3, 0) + IF(G73="x", M73*References!$C$4, 0) + IF(H73="x", M73*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-    </row>
-    <row r="74" spans="1:24">
-      <c r="A74" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J74" s="9">
-        <v>41231</v>
-      </c>
-      <c r="K74" s="9">
-        <v>41231</v>
-      </c>
-      <c r="L74" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <v>4</v>
-      </c>
-      <c r="N74" s="4">
-        <f>IF(F74="x", M74*References!$C$3, 0) + IF(G74="x", M74*References!$C$4, 0) + IF(H74="x", M74*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="A75" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J75" s="9">
-        <v>41231</v>
-      </c>
-      <c r="K75" s="9">
-        <v>41231</v>
-      </c>
-      <c r="L75" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <v>4</v>
-      </c>
-      <c r="N75" s="4">
-        <f>IF(F75="x", M75*References!$C$3, 0) + IF(G75="x", M75*References!$C$4, 0) + IF(H75="x", M75*References!$C$4, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" s="9">
-        <v>41232</v>
-      </c>
-      <c r="K76" s="9">
-        <v>41232</v>
-      </c>
-      <c r="L76" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <v>4</v>
-      </c>
-      <c r="N76" s="4">
-        <f>IF(F76="x", M76*References!$C$3, 0) + IF(G76="x", M76*References!$C$4, 0) + IF(H76="x", M76*References!$C$4, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="A77" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J77" s="9">
-        <v>41235</v>
-      </c>
-      <c r="K77" s="9">
-        <v>41235</v>
-      </c>
-      <c r="L77" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <v>12</v>
-      </c>
-      <c r="N77" s="4">
-        <f>IF(F77="x", M77*References!$C$3, 0) + IF(G77="x", M77*References!$C$4, 0) + IF(H77="x", M77*References!$C$4, 0)</f>
-        <v>60</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="5"/>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78" s="3">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J78" s="9">
-        <v>41239</v>
-      </c>
-      <c r="K78" s="9">
-        <v>41241</v>
-      </c>
-      <c r="L78" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M78" s="4">
-        <v>16</v>
-      </c>
-      <c r="N78" s="4">
-        <f>IF(F78="x", M78*References!$C$3, 0) + IF(G78="x", M78*References!$C$4, 0) + IF(H78="x", M78*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="5"/>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J79" s="9">
-        <v>41242</v>
-      </c>
-      <c r="K79" s="9">
-        <v>41244</v>
-      </c>
-      <c r="L79" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M79" s="4">
-        <v>16</v>
-      </c>
-      <c r="N79" s="4">
-        <f>IF(F79="x", M79*References!$C$3, 0) + IF(G79="x", M79*References!$C$4, 0) + IF(H79="x", M79*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="5"/>
-    </row>
-    <row r="80" spans="1:24">
-      <c r="A80" s="3">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J80" s="9">
-        <v>41245</v>
-      </c>
-      <c r="K80" s="9">
-        <v>41249</v>
-      </c>
-      <c r="L80" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M80" s="4">
-        <v>16</v>
-      </c>
-      <c r="N80" s="4">
-        <f>IF(F80="x", M80*References!$C$3, 0) + IF(G80="x", M80*References!$C$4, 0) + IF(H80="x", M80*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="5"/>
-    </row>
-    <row r="81" spans="1:24">
-      <c r="A81" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J81" s="9">
-        <v>41250</v>
-      </c>
-      <c r="K81" s="9">
-        <v>41250</v>
-      </c>
-      <c r="L81" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>16</v>
-      </c>
-      <c r="N81" s="4">
-        <f>IF(F81="x", M81*References!$C$3, 0) + IF(G81="x", M81*References!$C$4, 0) + IF(H81="x", M81*References!$C$4, 0)</f>
-        <v>80</v>
-      </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="5"/>
-    </row>
-    <row r="82" spans="1:24">
-      <c r="A82" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J82" s="9">
-        <v>41254</v>
-      </c>
-      <c r="K82" s="9">
-        <v>41254</v>
-      </c>
-      <c r="L82" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>4</v>
-      </c>
-      <c r="N82" s="4">
-        <f>IF(F82="x", M82*References!$C$3, 0) + IF(G82="x", M82*References!$C$4, 0) + IF(H82="x", M82*References!$C$4, 0)</f>
-        <v>20</v>
-      </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="5"/>
-    </row>
-    <row r="83" spans="1:24">
-      <c r="A83" s="3">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="5"/>
-    </row>
-    <row r="84" spans="1:24">
-      <c r="A84" s="3">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="5"/>
-    </row>
-    <row r="85" spans="1:24">
-      <c r="A85" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="5"/>
-    </row>
-    <row r="86" spans="1:24">
-      <c r="A86" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="5"/>
-    </row>
-    <row r="87" spans="1:24">
-      <c r="A87" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="5"/>
-    </row>
-    <row r="88" spans="1:24">
-      <c r="A88" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="5"/>
-    </row>
-    <row r="89" spans="1:24">
-      <c r="A89" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="5"/>
-    </row>
-    <row r="90" spans="1:24">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4">
-        <f>SUM(N8:N82)</f>
-        <v>1872</v>
-      </c>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="5"/>
-    </row>
-    <row r="91" spans="1:24">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="5"/>
-    </row>
-    <row r="92" spans="1:24">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="5"/>
-    </row>
-    <row r="93" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="8"/>
+      <c r="X72" s="5"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M2:N2"/>
@@ -6523,17 +5844,9 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="29" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
